--- a/inventory_count.xlsx
+++ b/inventory_count.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11610" activeTab="4"/>
+    <workbookView windowWidth="18555" windowHeight="10890" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="仓库" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="出库" sheetId="3" r:id="rId4"/>
     <sheet name="仓库手工统计" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="19">
   <si>
     <t>仓库</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>差额</t>
+  </si>
+  <si>
+    <t>售卖速度</t>
   </si>
   <si>
     <t>亚麻籽</t>
@@ -79,10 +82,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -102,59 +105,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,9 +119,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,15 +148,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -207,7 +187,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -222,11 +202,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -238,8 +218,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,7 +269,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,7 +389,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,163 +443,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,6 +500,78 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -522,78 +597,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -602,10 +605,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -614,133 +617,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1094,18 +1097,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="3" max="3" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1119,10 +1122,13 @@
       <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4">
         <f>入库!B33-调库!B33-出库!B33</f>
@@ -1133,117 +1139,122 @@
         <v>3</v>
       </c>
       <c r="D2" s="4">
-        <f>入库!D33-调库!D33-出库!D33</f>
         <v>9</v>
       </c>
       <c r="E2" s="8">
         <f>B2-D2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="6">
         <f>入库!C33-调库!C33-出库!C33</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="6">
         <f>调库!C33</f>
         <v>0</v>
       </c>
       <c r="D3" s="6">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E3" s="9">
         <f t="shared" ref="E3:E13" si="0">B3-D3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4">
         <f>入库!D33-调库!D33-出库!D33</f>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C4" s="4">
         <f>调库!D33</f>
         <v>0</v>
       </c>
       <c r="D4" s="4">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E4" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="6">
         <f>入库!E33-调库!E33-出库!E33</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" s="6">
         <f>调库!E33</f>
         <v>0</v>
       </c>
       <c r="D5" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="4">
         <f>入库!F33-调库!F33-出库!F33</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4">
         <f>调库!F33</f>
         <v>0</v>
       </c>
       <c r="D6" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="6">
         <f>入库!G33-调库!G33-出库!G33</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7" s="6">
         <f>调库!G33</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="4">
         <f>入库!H33-调库!H33-出库!H33</f>
@@ -1260,30 +1271,32 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="6">
         <f>入库!I33-调库!I33-出库!I33</f>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C9" s="6">
         <f>调库!I33</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="6">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="4">
         <f>入库!J33-调库!J33-出库!J33</f>
@@ -1300,10 +1313,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="6">
         <f>入库!K33-调库!K33-出库!K33</f>
@@ -1320,10 +1334,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="4">
         <f>入库!L33-调库!L33-出库!L33</f>
@@ -1340,10 +1355,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="6">
         <f>入库!M33-调库!M33-出库!M33</f>
@@ -1360,6 +1376,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="F13" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1373,7 +1390,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1384,40 +1401,40 @@
     <row r="1" spans="1:13">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1682,13 +1699,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="C15" s="6">
+        <v>6</v>
+      </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="I15" s="6">
+        <v>12</v>
+      </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -1841,7 +1862,9 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="I24" s="4">
+        <v>24</v>
+      </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -1954,8 +1977,12 @@
         <v>30</v>
       </c>
       <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+      <c r="C31" s="6">
+        <v>12</v>
+      </c>
+      <c r="D31" s="6">
+        <v>12</v>
+      </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -1985,7 +2012,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B32)</f>
@@ -1993,11 +2020,11 @@
       </c>
       <c r="C33" s="6">
         <f t="shared" ref="C33:M33" si="0">SUM(C2:C32)</f>
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D33" s="6">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E33" s="6">
         <f t="shared" si="0"/>
@@ -2017,7 +2044,7 @@
       </c>
       <c r="I33" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J33" s="6">
         <f t="shared" si="0"/>
@@ -2048,7 +2075,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2056,40 +2083,40 @@
     <row r="1" spans="1:13">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2328,7 +2355,9 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="I15" s="6">
+        <v>2</v>
+      </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -2479,7 +2508,9 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="G24" s="4">
+        <v>2</v>
+      </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -2625,7 +2656,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B33" s="6">
         <f t="shared" ref="B33:M33" si="0">SUM(B2:B32)</f>
@@ -2649,7 +2680,7 @@
       </c>
       <c r="G33" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33" s="6">
         <f t="shared" si="0"/>
@@ -2657,7 +2688,7 @@
       </c>
       <c r="I33" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" s="6">
         <f t="shared" si="0"/>
@@ -2687,8 +2718,8 @@
   <sheetPr/>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2696,40 +2727,40 @@
     <row r="1" spans="1:13">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2917,6 +2948,736 @@
         <v>11</v>
       </c>
       <c r="B12" s="4"/>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6">
+        <v>2</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6">
+        <v>3</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6">
+        <v>3</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4">
+        <v>1</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6">
+        <v>1</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="9"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="9"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4">
+        <v>2</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6">
+        <v>2</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="9"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4">
+        <v>2</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4">
+        <v>2</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="8"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6">
+        <v>2</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="9"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4">
+        <v>2</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4">
+        <v>2</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="8"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6">
+        <v>1</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="9"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="8"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="9"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4">
+        <v>1</v>
+      </c>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="8"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6">
+        <v>1</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6">
+        <v>2</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="9"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4">
+        <v>1</v>
+      </c>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="6">
+        <f t="shared" ref="B33:M33" si="0">SUM(B2:B32)</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D33" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E33" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F33" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G33" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H33" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="6">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="J33" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5">
+        <v>9</v>
+      </c>
+      <c r="E11" s="5">
+        <v>10</v>
+      </c>
+      <c r="F11" s="5">
+        <v>7</v>
+      </c>
+      <c r="G11" s="5">
+        <v>9</v>
+      </c>
+      <c r="H11" s="5">
+        <v>7</v>
+      </c>
+      <c r="I11" s="5">
+        <v>7</v>
+      </c>
+      <c r="J11" s="5">
+        <v>12</v>
+      </c>
+      <c r="K11" s="5">
+        <v>6</v>
+      </c>
+      <c r="L11" s="5">
+        <v>10</v>
+      </c>
+      <c r="M11" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -2950,18 +3711,42 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="8"/>
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4">
+        <v>9</v>
+      </c>
+      <c r="E14" s="4">
+        <v>9</v>
+      </c>
+      <c r="F14" s="4">
+        <v>6</v>
+      </c>
+      <c r="G14" s="4">
+        <v>9</v>
+      </c>
+      <c r="H14" s="4">
+        <v>7</v>
+      </c>
+      <c r="I14" s="4">
+        <v>3</v>
+      </c>
+      <c r="J14" s="4">
+        <v>12</v>
+      </c>
+      <c r="K14" s="4">
+        <v>6</v>
+      </c>
+      <c r="L14" s="4">
+        <v>10</v>
+      </c>
+      <c r="M14" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="5">
@@ -3001,18 +3786,42 @@
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="9"/>
+      <c r="B17" s="6">
+        <v>9</v>
+      </c>
+      <c r="C17" s="6">
+        <v>10</v>
+      </c>
+      <c r="D17" s="6">
+        <v>8</v>
+      </c>
+      <c r="E17" s="6">
+        <v>9</v>
+      </c>
+      <c r="F17" s="6">
+        <v>6</v>
+      </c>
+      <c r="G17" s="6">
+        <v>9</v>
+      </c>
+      <c r="H17" s="6">
+        <v>7</v>
+      </c>
+      <c r="I17" s="6">
+        <v>9</v>
+      </c>
+      <c r="J17" s="6">
+        <v>12</v>
+      </c>
+      <c r="K17" s="6">
+        <v>6</v>
+      </c>
+      <c r="L17" s="6">
+        <v>10</v>
+      </c>
+      <c r="M17" s="9">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="3">
@@ -3120,18 +3929,42 @@
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="8"/>
+      <c r="B24" s="4">
+        <v>9</v>
+      </c>
+      <c r="C24" s="4">
+        <v>7</v>
+      </c>
+      <c r="D24" s="4">
+        <v>7</v>
+      </c>
+      <c r="E24" s="4">
+        <v>7</v>
+      </c>
+      <c r="F24" s="4">
+        <v>6</v>
+      </c>
+      <c r="G24" s="4">
+        <v>6</v>
+      </c>
+      <c r="H24" s="4">
+        <v>7</v>
+      </c>
+      <c r="I24" s="4">
+        <v>25</v>
+      </c>
+      <c r="J24" s="4">
+        <v>12</v>
+      </c>
+      <c r="K24" s="4">
+        <v>6</v>
+      </c>
+      <c r="L24" s="4">
+        <v>10</v>
+      </c>
+      <c r="M24" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="5">
@@ -3239,18 +4072,42 @@
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="9"/>
+      <c r="B31" s="6">
+        <v>9</v>
+      </c>
+      <c r="C31" s="6">
+        <v>16</v>
+      </c>
+      <c r="D31" s="6">
+        <v>17</v>
+      </c>
+      <c r="E31" s="6">
+        <v>6</v>
+      </c>
+      <c r="F31" s="6">
+        <v>6</v>
+      </c>
+      <c r="G31" s="6">
+        <v>5</v>
+      </c>
+      <c r="H31" s="6">
+        <v>7</v>
+      </c>
+      <c r="I31" s="6">
+        <v>16</v>
+      </c>
+      <c r="J31" s="6">
+        <v>12</v>
+      </c>
+      <c r="K31" s="6">
+        <v>6</v>
+      </c>
+      <c r="L31" s="6">
+        <v>10</v>
+      </c>
+      <c r="M31" s="9">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="3">
@@ -3271,719 +4128,24 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="6">
-        <f t="shared" ref="B33:M33" si="0">SUM(B2:B32)</f>
-        <v>0</v>
-      </c>
-      <c r="C33" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D33" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F33" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="J33" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M33"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="8"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="9"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="8"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="9"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="9"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="8"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <v>7</v>
-      </c>
-      <c r="G11">
-        <v>9</v>
-      </c>
-      <c r="H11">
-        <v>7</v>
-      </c>
-      <c r="I11">
-        <v>7</v>
-      </c>
-      <c r="J11">
-        <v>12</v>
-      </c>
-      <c r="K11">
-        <v>6</v>
-      </c>
-      <c r="L11">
-        <v>10</v>
-      </c>
-      <c r="M11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="8"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="9"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="8"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="9"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="8"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="9"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="8"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="9"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="8"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="9"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="8"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="9"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="8"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="5">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="9"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="8"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="9"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="8"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="5">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="9"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="8"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="5">
-        <v>30</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="9"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="3">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="8"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="6">
-        <f t="shared" ref="B33:M33" si="0">SUM(B2:B32)</f>
-        <v>9</v>
-      </c>
-      <c r="C33" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D33" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E33" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F33" s="6">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="G33" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="H33" s="6">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="I33" s="6">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="J33" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="K33" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L33" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="M33" s="9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="256" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/inventory_count.xlsx
+++ b/inventory_count.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18555" windowHeight="10890" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="仓库" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="调库" sheetId="4" r:id="rId3"/>
     <sheet name="出库" sheetId="3" r:id="rId4"/>
     <sheet name="仓库手工统计" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="23">
   <si>
     <t>仓库</t>
   </si>
@@ -76,6 +77,18 @@
   <si>
     <t>最新数据</t>
   </si>
+  <si>
+    <t>百威期末数量</t>
+  </si>
+  <si>
+    <t>仓库库存</t>
+  </si>
+  <si>
+    <t>食堂卖掉</t>
+  </si>
+  <si>
+    <t>服务部挂账</t>
+  </si>
 </sst>
 </file>
 
@@ -83,9 +96,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -105,7 +118,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,9 +148,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -160,37 +189,6 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,6 +231,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +282,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -287,13 +318,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,7 +366,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,30 +390,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -365,19 +402,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,13 +426,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,44 +466,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -487,6 +500,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="9" tint="0.399975585192419"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="0.399975585192419"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color theme="9" tint="0.399975585192419"/>
@@ -496,6 +524,21 @@
       </top>
       <bottom style="thin">
         <color theme="9" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,21 +563,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,149 +633,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -769,6 +797,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -776,6 +807,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1099,13 +1139,14 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.5" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1119,10 +1160,10 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1132,20 +1173,18 @@
       </c>
       <c r="B2" s="4">
         <f>入库!B33-调库!B33-出库!B33</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4">
         <f>调库!B33</f>
         <v>3</v>
       </c>
-      <c r="D2" s="4">
-        <v>9</v>
-      </c>
-      <c r="E2" s="8">
+      <c r="D2" s="4"/>
+      <c r="E2" s="12">
         <f>B2-D2</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
@@ -1153,20 +1192,18 @@
       </c>
       <c r="B3" s="6">
         <f>入库!C33-调库!C33-出库!C33</f>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C3" s="6">
         <f>调库!C33</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="6">
-        <v>16</v>
-      </c>
-      <c r="E3" s="9">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="13">
         <f t="shared" ref="E3:E13" si="0">B3-D3</f>
-        <v>-1</v>
-      </c>
-      <c r="F3" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
@@ -1174,20 +1211,18 @@
       </c>
       <c r="B4" s="4">
         <f>入库!D33-调库!D33-出库!D33</f>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4">
         <f>调库!D33</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>17</v>
-      </c>
-      <c r="E4" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
@@ -1195,20 +1230,18 @@
       </c>
       <c r="B5" s="6">
         <f>入库!E33-调库!E33-出库!E33</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="6">
         <f>调库!E33</f>
         <v>0</v>
       </c>
-      <c r="D5" s="6">
-        <v>6</v>
-      </c>
-      <c r="E5" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="9"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
@@ -1222,14 +1255,12 @@
         <f>调库!F33</f>
         <v>0</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="4"/>
+      <c r="E6" s="12">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E6" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
@@ -1237,20 +1268,18 @@
       </c>
       <c r="B7" s="6">
         <f>入库!G33-调库!G33-出库!G33</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="6">
         <f>调库!G33</f>
-        <v>2</v>
-      </c>
-      <c r="D7" s="6">
         <v>5</v>
       </c>
-      <c r="E7" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F7" s="9"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
@@ -1258,20 +1287,18 @@
       </c>
       <c r="B8" s="4">
         <f>入库!H33-调库!H33-出库!H33</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" s="4">
         <f>调库!H33</f>
         <v>0</v>
       </c>
-      <c r="D8" s="4">
-        <v>7</v>
-      </c>
-      <c r="E8" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="8"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
@@ -1279,20 +1306,18 @@
       </c>
       <c r="B9" s="6">
         <f>入库!I33-调库!I33-出库!I33</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="6">
         <f>调库!I33</f>
-        <v>2</v>
-      </c>
-      <c r="D9" s="6">
-        <v>16</v>
-      </c>
-      <c r="E9" s="9">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F9" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="13">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
@@ -1300,20 +1325,18 @@
       </c>
       <c r="B10" s="4">
         <f>入库!J33-调库!J33-出库!J33</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10" s="4">
         <f>调库!J33</f>
         <v>0</v>
       </c>
-      <c r="D10" s="4">
-        <v>12</v>
-      </c>
-      <c r="E10" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="8"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
@@ -1321,20 +1344,18 @@
       </c>
       <c r="B11" s="6">
         <f>入库!K33-调库!K33-出库!K33</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11" s="6">
         <f>调库!K33</f>
         <v>0</v>
       </c>
-      <c r="D11" s="6">
-        <v>6</v>
-      </c>
-      <c r="E11" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="9"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
@@ -1342,20 +1363,18 @@
       </c>
       <c r="B12" s="4">
         <f>入库!L33-调库!L33-出库!L33</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C12" s="4">
         <f>调库!L33</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>10</v>
-      </c>
-      <c r="E12" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
@@ -1363,23 +1382,22 @@
       </c>
       <c r="B13" s="6">
         <f>入库!M33-调库!M33-出库!M33</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" s="6">
         <f>调库!M33</f>
         <v>3</v>
       </c>
-      <c r="D13" s="6">
-        <v>8</v>
-      </c>
-      <c r="E13" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="9"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F13" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1387,10 +1405,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1433,28 +1451,55 @@
       <c r="L1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="8"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="B2" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4">
+        <v>7</v>
+      </c>
+      <c r="I2" s="4">
+        <v>15</v>
+      </c>
+      <c r="J2" s="4">
+        <v>12</v>
+      </c>
+      <c r="K2" s="4">
+        <v>6</v>
+      </c>
+      <c r="L2" s="4">
+        <v>10</v>
+      </c>
+      <c r="M2" s="4">
+        <v>8</v>
+      </c>
+      <c r="N2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1469,9 +1514,12 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="9"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="M3" s="13"/>
+      <c r="N3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1486,9 +1534,12 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="8"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="M4" s="12"/>
+      <c r="N4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1503,9 +1554,12 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="9"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="M5" s="13"/>
+      <c r="N5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1520,9 +1574,12 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="M6" s="12"/>
+      <c r="N6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1537,50 +1594,32 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="9"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="M7" s="13"/>
+      <c r="N7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4">
-        <v>10</v>
-      </c>
-      <c r="D8" s="4">
-        <v>8</v>
-      </c>
-      <c r="E8" s="4">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="12"/>
+      <c r="N8">
         <v>7</v>
       </c>
-      <c r="G8" s="4">
-        <v>8</v>
-      </c>
-      <c r="H8" s="4">
-        <v>7</v>
-      </c>
-      <c r="I8" s="4">
-        <v>9</v>
-      </c>
-      <c r="J8" s="4">
-        <v>2</v>
-      </c>
-      <c r="K8" s="4">
-        <v>6</v>
-      </c>
-      <c r="L8" s="4">
-        <v>10</v>
-      </c>
-      <c r="M8" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1595,9 +1634,12 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="M9" s="13"/>
+      <c r="N9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1612,38 +1654,32 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="8"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="M10" s="12"/>
+      <c r="N10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="6">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="6">
-        <v>1</v>
-      </c>
+      <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="6">
-        <v>1</v>
-      </c>
-      <c r="J11" s="6">
-        <v>10</v>
-      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="M11" s="13"/>
+      <c r="N11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1658,9 +1694,12 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="8"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="M12" s="12"/>
+      <c r="N12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1675,7 +1714,10 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="9"/>
+      <c r="M13" s="13"/>
+      <c r="N13">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="3">
@@ -1688,32 +1730,30 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="I14" s="4">
+        <v>24</v>
+      </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="8"/>
+      <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="6"/>
-      <c r="C15" s="6">
-        <v>6</v>
-      </c>
+      <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="6">
-        <v>12</v>
-      </c>
+      <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="9"/>
+      <c r="M15" s="13"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="3">
@@ -1730,7 +1770,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="8"/>
+      <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="5">
@@ -1747,7 +1787,7 @@
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="9"/>
+      <c r="M17" s="13"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="3">
@@ -1764,7 +1804,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="8"/>
+      <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5">
@@ -1781,24 +1821,30 @@
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="9"/>
+      <c r="M19" s="13"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="C20" s="4">
+        <v>4</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="G20" s="4">
+        <v>3</v>
+      </c>
       <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="I20" s="4">
+        <v>24</v>
+      </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="8"/>
+      <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="5">
@@ -1815,7 +1861,7 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="9"/>
+      <c r="M21" s="13"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="3">
@@ -1832,7 +1878,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="8"/>
+      <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="5">
@@ -1843,13 +1889,15 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="G23" s="6">
+        <v>6</v>
+      </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="9"/>
+      <c r="M23" s="13"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="3">
@@ -1862,13 +1910,11 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="4">
-        <v>24</v>
-      </c>
+      <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="8"/>
+      <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="5">
@@ -1885,7 +1931,7 @@
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="9"/>
+      <c r="M25" s="13"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="3">
@@ -1902,7 +1948,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="8"/>
+      <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="5">
@@ -1919,7 +1965,7 @@
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="9"/>
+      <c r="M27" s="13"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="3">
@@ -1936,7 +1982,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="8"/>
+      <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="5">
@@ -1953,7 +1999,7 @@
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="9"/>
+      <c r="M29" s="13"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="3">
@@ -1970,19 +2016,15 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="8"/>
+      <c r="M30" s="12"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="5">
         <v>30</v>
       </c>
       <c r="B31" s="6"/>
-      <c r="C31" s="6">
-        <v>12</v>
-      </c>
-      <c r="D31" s="6">
-        <v>12</v>
-      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -1991,7 +2033,7 @@
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="9"/>
+      <c r="M31" s="13"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="3">
@@ -2008,7 +2050,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="8"/>
+      <c r="M32" s="12"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="5" t="s">
@@ -2016,35 +2058,35 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B32)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C33" s="6">
         <f t="shared" ref="C33:M33" si="0">SUM(C2:C32)</f>
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D33" s="6">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E33" s="6">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F33" s="6">
         <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G33" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H33" s="6">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G33" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="H33" s="6">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
       <c r="I33" s="6">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="J33" s="6">
         <f t="shared" si="0"/>
@@ -2058,9 +2100,9 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M33" s="9">
-        <f t="shared" si="0"/>
-        <v>11</v>
+      <c r="M33" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2075,7 +2117,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2115,7 +2157,7 @@
       <c r="L1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2134,7 +2176,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="8"/>
+      <c r="M2" s="12"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="5">
@@ -2151,7 +2193,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="9"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="3">
@@ -2168,7 +2210,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="8"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="5">
@@ -2185,7 +2227,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="9"/>
+      <c r="M5" s="13"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="3">
@@ -2202,7 +2244,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="8"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="5">
@@ -2219,7 +2261,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="9"/>
+      <c r="M7" s="13"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="3">
@@ -2236,7 +2278,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="8"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="5">
@@ -2253,7 +2295,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="9"/>
+      <c r="M9" s="13"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3">
@@ -2270,15 +2312,13 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="8"/>
+      <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
-        <v>3</v>
-      </c>
+      <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -2289,9 +2329,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="9">
-        <v>3</v>
-      </c>
+      <c r="M11" s="13"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="3">
@@ -2302,13 +2340,15 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4">
+        <v>2</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="8"/>
+      <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="5">
@@ -2324,8 +2364,10 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="9"/>
+      <c r="L13" s="6">
+        <v>8</v>
+      </c>
+      <c r="M13" s="13"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="3">
@@ -2342,26 +2384,30 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="8"/>
+      <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="C15" s="6">
+        <v>3</v>
+      </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="9"/>
+      <c r="M15" s="13"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="3">
@@ -2378,7 +2424,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="8"/>
+      <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="5">
@@ -2395,7 +2441,7 @@
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="9"/>
+      <c r="M17" s="13"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="3">
@@ -2412,7 +2458,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="8"/>
+      <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5">
@@ -2429,7 +2475,7 @@
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="9"/>
+      <c r="M19" s="13"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="3">
@@ -2446,7 +2492,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="8"/>
+      <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="5">
@@ -2463,7 +2509,7 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="9"/>
+      <c r="M21" s="13"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="3">
@@ -2474,19 +2520,23 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="G22" s="4">
+        <v>2</v>
+      </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="8"/>
+      <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="6">
+        <v>3</v>
+      </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -2497,7 +2547,9 @@
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="9"/>
+      <c r="M23" s="13">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="3">
@@ -2508,15 +2560,13 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="4">
-        <v>2</v>
-      </c>
+      <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="8"/>
+      <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="5">
@@ -2533,7 +2583,7 @@
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="9"/>
+      <c r="M25" s="13"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="3">
@@ -2541,16 +2591,20 @@
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="I26" s="4">
+        <v>2</v>
+      </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="8"/>
+      <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="5">
@@ -2567,7 +2621,7 @@
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="9"/>
+      <c r="M27" s="13"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="3">
@@ -2584,7 +2638,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="8"/>
+      <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="5">
@@ -2601,7 +2655,7 @@
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="9"/>
+      <c r="M29" s="13"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="3">
@@ -2618,7 +2672,7 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="8"/>
+      <c r="M30" s="12"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="5">
@@ -2635,7 +2689,7 @@
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="9"/>
+      <c r="M31" s="13"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="3">
@@ -2652,7 +2706,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="8"/>
+      <c r="M32" s="12"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="5" t="s">
@@ -2664,45 +2718,45 @@
       </c>
       <c r="C33" s="6">
         <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D33" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E33" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D33" s="6">
+      <c r="F33" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="6">
+      <c r="G33" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H33" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F33" s="6">
+      <c r="I33" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J33" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G33" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H33" s="6">
+      <c r="K33" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I33" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J33" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="L33" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="9">
+        <v>8</v>
+      </c>
+      <c r="M33" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -2718,8 +2772,8 @@
   <sheetPr/>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2759,7 +2813,7 @@
       <c r="L1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2778,7 +2832,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="8"/>
+      <c r="M2" s="12"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="5">
@@ -2795,7 +2849,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="9"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="3">
@@ -2812,24 +2866,28 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="8"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="C5" s="6">
+        <v>3</v>
+      </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="I5" s="6">
+        <v>3</v>
+      </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="9"/>
+      <c r="M5" s="13"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="3">
@@ -2842,11 +2900,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="8"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="5">
@@ -2858,90 +2918,92 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6">
+        <v>2</v>
+      </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="9"/>
+      <c r="M7" s="13"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="8"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
+      <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
+      <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="6">
-        <v>2</v>
-      </c>
+      <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="9"/>
+      <c r="M9" s="13"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
+      <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="4">
-        <v>1</v>
-      </c>
+      <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="8"/>
+      <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="I11" s="6">
+        <v>1</v>
+      </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="9"/>
+      <c r="M11" s="13"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="3">
@@ -2955,14 +3017,16 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
       <c r="I12" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="8"/>
+      <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="5">
@@ -2970,24 +3034,22 @@
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="6">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6">
         <v>1</v>
       </c>
-      <c r="F13" s="6">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="9"/>
+      <c r="M13" s="13"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="3">
@@ -3000,42 +3062,42 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="I14" s="4">
+        <v>7</v>
+      </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
       <c r="L14" s="4"/>
-      <c r="M14" s="8"/>
+      <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="6"/>
-      <c r="C15" s="6">
-        <v>1</v>
-      </c>
+      <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="6">
-        <v>3</v>
-      </c>
+      <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="9"/>
+      <c r="M15" s="13"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4">
+      <c r="C16" s="4">
         <v>1</v>
       </c>
+      <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -3046,7 +3108,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="8"/>
+      <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="5">
@@ -3054,7 +3116,9 @@
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -3065,7 +3129,7 @@
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="9"/>
+      <c r="M17" s="13"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="3">
@@ -3074,19 +3138,17 @@
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
+      <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="4">
+      <c r="I18" s="4"/>
+      <c r="J18" s="4">
         <v>1</v>
       </c>
-      <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="8"/>
+      <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5">
@@ -3095,36 +3157,44 @@
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
+      <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
       <c r="I19" s="6">
+        <v>3</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6">
         <v>1</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="9"/>
+      <c r="M19" s="13"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="I20" s="4">
+        <v>3</v>
+      </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="8"/>
+      <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="5">
@@ -3141,28 +3211,32 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="9"/>
+      <c r="M21" s="13"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="4">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4">
         <v>1</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
       <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="8"/>
+      <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="5">
@@ -3172,43 +3246,39 @@
       <c r="C23" s="6">
         <v>1</v>
       </c>
-      <c r="D23" s="6">
-        <v>1</v>
-      </c>
+      <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="6">
-        <v>1</v>
-      </c>
+      <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6">
         <v>2</v>
       </c>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
+      <c r="J23" s="6">
+        <v>1</v>
+      </c>
+      <c r="K23" s="6">
+        <v>1</v>
+      </c>
       <c r="L23" s="6"/>
-      <c r="M23" s="9"/>
+      <c r="M23" s="13"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="4">
-        <v>2</v>
-      </c>
+      <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="4">
-        <v>2</v>
-      </c>
+      <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="8"/>
+      <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="5">
@@ -3217,19 +3287,15 @@
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="6">
-        <v>1</v>
-      </c>
+      <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="6">
-        <v>2</v>
-      </c>
+      <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="9"/>
+      <c r="M25" s="13"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="3">
@@ -3238,7 +3304,7 @@
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -3250,28 +3316,24 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="8"/>
+      <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="6"/>
-      <c r="C27" s="6">
-        <v>1</v>
-      </c>
+      <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="6">
-        <v>1</v>
-      </c>
+      <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="9"/>
+      <c r="M27" s="13"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="3">
@@ -3285,71 +3347,73 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="J28" s="4">
+        <v>1</v>
+      </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="8"/>
+      <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="5">
         <v>28</v>
       </c>
       <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="C29" s="6">
+        <v>2</v>
+      </c>
+      <c r="D29" s="6">
+        <v>1</v>
+      </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="I29" s="6">
+        <v>3</v>
+      </c>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="9"/>
+      <c r="M29" s="13"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="4"/>
-      <c r="C30" s="4">
-        <v>1</v>
-      </c>
+      <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="4">
-        <v>0</v>
-      </c>
+      <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="4">
-        <v>1</v>
-      </c>
+      <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="8"/>
+      <c r="M30" s="12"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="5">
         <v>30</v>
       </c>
       <c r="B31" s="6"/>
-      <c r="C31" s="6">
-        <v>1</v>
-      </c>
+      <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="G31" s="6">
+        <v>1</v>
+      </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="9"/>
+      <c r="M31" s="13"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="3">
@@ -3362,13 +3426,11 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="4">
-        <v>1</v>
-      </c>
+      <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="8"/>
+      <c r="M32" s="12"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="5" t="s">
@@ -3380,45 +3442,45 @@
       </c>
       <c r="C33" s="6">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33" s="6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E33" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F33" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H33" s="6">
         <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I33" s="6">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="J33" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K33" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L33" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I33" s="6">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="J33" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="9">
+      <c r="M33" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3435,717 +3497,855 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="3">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="5">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="3">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="5">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="3">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="5">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="3">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="5">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="3">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="5">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5">
-        <v>8</v>
-      </c>
-      <c r="D11" s="5">
-        <v>9</v>
-      </c>
-      <c r="E11" s="5">
-        <v>10</v>
-      </c>
-      <c r="F11" s="5">
-        <v>7</v>
-      </c>
-      <c r="G11" s="5">
-        <v>9</v>
-      </c>
-      <c r="H11" s="5">
-        <v>7</v>
-      </c>
-      <c r="I11" s="5">
-        <v>7</v>
-      </c>
-      <c r="J11" s="5">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="K11" s="5">
-        <v>6</v>
-      </c>
-      <c r="L11" s="5">
-        <v>10</v>
-      </c>
-      <c r="M11" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="8"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="3">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4">
-        <v>5</v>
-      </c>
-      <c r="D14" s="4">
-        <v>9</v>
-      </c>
-      <c r="E14" s="4">
-        <v>9</v>
-      </c>
-      <c r="F14" s="4">
-        <v>6</v>
-      </c>
-      <c r="G14" s="4">
-        <v>9</v>
-      </c>
-      <c r="H14" s="4">
-        <v>7</v>
-      </c>
-      <c r="I14" s="4">
-        <v>3</v>
-      </c>
-      <c r="J14" s="4">
-        <v>12</v>
-      </c>
-      <c r="K14" s="4">
-        <v>6</v>
-      </c>
-      <c r="L14" s="4">
-        <v>10</v>
-      </c>
-      <c r="M14" s="8">
-        <v>8</v>
-      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="5">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="3">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="5">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="6">
-        <v>9</v>
-      </c>
-      <c r="C17" s="6">
-        <v>10</v>
-      </c>
-      <c r="D17" s="6">
-        <v>8</v>
-      </c>
-      <c r="E17" s="6">
-        <v>9</v>
-      </c>
-      <c r="F17" s="6">
-        <v>6</v>
-      </c>
-      <c r="G17" s="6">
-        <v>9</v>
-      </c>
-      <c r="H17" s="6">
-        <v>7</v>
-      </c>
-      <c r="I17" s="6">
-        <v>9</v>
-      </c>
-      <c r="J17" s="6">
-        <v>12</v>
-      </c>
-      <c r="K17" s="6">
-        <v>6</v>
-      </c>
-      <c r="L17" s="6">
-        <v>10</v>
-      </c>
-      <c r="M17" s="9">
-        <v>8</v>
-      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="3">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="5">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="3">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="5">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="3">
+      <c r="A22" s="9">
         <v>21</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="5">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="3">
+      <c r="A24" s="9">
         <v>23</v>
       </c>
-      <c r="B24" s="4">
-        <v>9</v>
-      </c>
-      <c r="C24" s="4">
-        <v>7</v>
-      </c>
-      <c r="D24" s="4">
-        <v>7</v>
-      </c>
-      <c r="E24" s="4">
-        <v>7</v>
-      </c>
-      <c r="F24" s="4">
-        <v>6</v>
-      </c>
-      <c r="G24" s="4">
-        <v>6</v>
-      </c>
-      <c r="H24" s="4">
-        <v>7</v>
-      </c>
-      <c r="I24" s="4">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="9">
         <v>25</v>
       </c>
-      <c r="J24" s="4">
-        <v>12</v>
-      </c>
-      <c r="K24" s="4">
-        <v>6</v>
-      </c>
-      <c r="L24" s="4">
-        <v>10</v>
-      </c>
-      <c r="M24" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="5">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="9"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="5">
+      <c r="A27" s="10">
         <v>26</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="3">
+      <c r="A28" s="9">
         <v>27</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="5">
+      <c r="A29" s="10">
         <v>28</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="3">
+      <c r="A30" s="9">
         <v>29</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="5">
+      <c r="A31" s="10">
         <v>30</v>
       </c>
-      <c r="B31" s="6">
-        <v>9</v>
-      </c>
-      <c r="C31" s="6">
-        <v>16</v>
-      </c>
-      <c r="D31" s="6">
-        <v>17</v>
-      </c>
-      <c r="E31" s="6">
-        <v>6</v>
-      </c>
-      <c r="F31" s="6">
-        <v>6</v>
-      </c>
-      <c r="G31" s="6">
-        <v>5</v>
-      </c>
-      <c r="H31" s="6">
-        <v>7</v>
-      </c>
-      <c r="I31" s="6">
-        <v>16</v>
-      </c>
-      <c r="J31" s="6">
-        <v>12</v>
-      </c>
-      <c r="K31" s="6">
-        <v>6</v>
-      </c>
-      <c r="L31" s="6">
-        <v>10</v>
-      </c>
-      <c r="M31" s="9">
-        <v>8</v>
-      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="3">
+      <c r="A32" s="9">
         <v>31</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="256" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4">
+        <v>40</v>
+      </c>
+      <c r="D2" s="3">
+        <v>26</v>
+      </c>
+      <c r="E2" s="4">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4">
+        <v>14</v>
+      </c>
+      <c r="I2" s="4">
+        <v>65</v>
+      </c>
+      <c r="J2" s="3">
+        <v>13</v>
+      </c>
+      <c r="K2" s="4">
+        <v>7</v>
+      </c>
+      <c r="L2" s="4">
+        <v>12</v>
+      </c>
+      <c r="M2" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="6">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5">
+        <v>17</v>
+      </c>
+      <c r="E3" s="6">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5">
+        <v>6</v>
+      </c>
+      <c r="H3" s="6">
+        <v>7</v>
+      </c>
+      <c r="I3" s="6">
+        <v>15</v>
+      </c>
+      <c r="J3" s="5">
+        <v>12</v>
+      </c>
+      <c r="K3" s="6">
+        <v>6</v>
+      </c>
+      <c r="L3" s="6">
+        <v>10</v>
+      </c>
+      <c r="M3" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4">
+        <v>39</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <f>B2-B3-B4-B5-B6</f>
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:M7" si="0">C2-C3-C4-C5-C6</f>
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/inventory_count.xlsx
+++ b/inventory_count.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="24">
   <si>
     <t>仓库</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>伊肽素</t>
+  </si>
+  <si>
+    <t>伊肽素报损一罐</t>
   </si>
   <si>
     <t>伊支素</t>
@@ -95,8 +98,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -117,16 +120,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,15 +179,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,46 +227,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,33 +242,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -255,7 +258,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,13 +285,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,19 +303,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,67 +363,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,7 +399,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,13 +423,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,25 +459,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,21 +531,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -576,6 +564,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -600,21 +618,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -633,10 +636,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,7 +648,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,124 +657,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1137,13 +1140,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="3" width="14.5" hidden="1" customWidth="1"/>
     <col min="4" max="5" width="9" hidden="1" customWidth="1"/>
@@ -1205,7 +1208,7 @@
       </c>
       <c r="F3" s="13"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1223,10 +1226,13 @@
         <v>11</v>
       </c>
       <c r="F4" s="12"/>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="6">
         <f>入库!E33-调库!E33-出库!E33</f>
@@ -1245,7 +1251,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4">
         <f>入库!F33-调库!F33-出库!F33</f>
@@ -1264,7 +1270,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="6">
         <f>入库!G33-调库!G33-出库!G33</f>
@@ -1283,7 +1289,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4">
         <f>入库!H33-调库!H33-出库!H33</f>
@@ -1302,7 +1308,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="6">
         <f>入库!I33-调库!I33-出库!I33</f>
@@ -1321,7 +1327,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="4">
         <f>入库!J33-调库!J33-出库!J33</f>
@@ -1340,7 +1346,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="6">
         <f>入库!K33-调库!K33-出库!K33</f>
@@ -1359,7 +1365,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="4">
         <f>入库!L33-调库!L33-出库!L33</f>
@@ -1378,7 +1384,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="6">
         <f>入库!M33-调库!M33-出库!M33</f>
@@ -1428,31 +1434,31 @@
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2054,7 +2060,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B32)</f>
@@ -2134,31 +2140,31 @@
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2710,7 +2716,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B33" s="6">
         <f t="shared" ref="B33:M33" si="0">SUM(B2:B32)</f>
@@ -2790,31 +2796,31 @@
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3434,7 +3440,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B33" s="6">
         <f t="shared" ref="B33:M33" si="0">SUM(B2:B32)</f>
@@ -3514,31 +3520,31 @@
         <v>7</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -4070,7 +4076,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -4098,7 +4104,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -4118,36 +4124,36 @@
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="4">
         <v>13</v>
@@ -4188,7 +4194,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="6">
         <v>9</v>
@@ -4229,7 +4235,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4">
@@ -4258,7 +4264,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
